--- a/Resources/Excel.xlsx
+++ b/Resources/Excel.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="49">
   <si>
     <t>Longest Option</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>boss duniya jar bose full natok download</t>
+  </si>
+  <si>
+    <t>মাধ্যমিক ও উচ্চমাধ্যমিক শিক্ষা বোর্ড, ঢাকা · 5 জয়নাগ রোড, ঢাকা</t>
+  </si>
+  <si>
+    <t>স্যাটারডে নাইট লাইভ — টিভি প্রোগ্রাম</t>
+  </si>
+  <si>
+    <t>pathao office near me</t>
+  </si>
+  <si>
+    <t>পাঠাও</t>
+  </si>
+  <si>
+    <t>Hello Hello! (Noodle &amp; Pals) [Sing-Along]</t>
+  </si>
+  <si>
+    <t>বয়স্ক ভাতা আবেদন অনলাইন 2025</t>
   </si>
 </sst>
 </file>
@@ -944,6 +962,12 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -952,6 +976,12 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -960,6 +990,12 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -968,6 +1004,12 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -976,6 +1018,12 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -984,6 +1032,12 @@
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -992,6 +1046,12 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
@@ -1000,6 +1060,12 @@
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
@@ -1008,12 +1074,24 @@
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D11" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>21</v>
       </c>
     </row>
